--- a/briefs/snakes and ladders/snakes and ladders.xlsx
+++ b/briefs/snakes and ladders/snakes and ladders.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1600" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="SNAKE INVASION" sheetId="2" r:id="rId2"/>
+    <sheet name="Snakes &amp; Ladders " sheetId="1" r:id="rId1"/>
+    <sheet name="Snake invasion option 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="100">
   <si>
     <t>START</t>
   </si>
@@ -34,18 +34,9 @@
     <t>PLAYER 2</t>
   </si>
   <si>
-    <t>DICE</t>
-  </si>
-  <si>
     <t xml:space="preserve">START </t>
   </si>
   <si>
-    <t>ICON 1</t>
-  </si>
-  <si>
-    <t>ICON 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">PLAYER 1 </t>
   </si>
   <si>
@@ -55,42 +46,6 @@
     <t>SCORE 2</t>
   </si>
   <si>
-    <t>27 (H3)</t>
-  </si>
-  <si>
-    <t>53(H3)</t>
-  </si>
-  <si>
-    <t>40(H2)</t>
-  </si>
-  <si>
-    <t>7 (T2)</t>
-  </si>
-  <si>
-    <t>33(H1)</t>
-  </si>
-  <si>
-    <t>21(T1)</t>
-  </si>
-  <si>
-    <t>54 (LT1)</t>
-  </si>
-  <si>
-    <t>31(LB1)</t>
-  </si>
-  <si>
-    <t>45(LT2)</t>
-  </si>
-  <si>
-    <t>10(LB2)</t>
-  </si>
-  <si>
-    <t>43 (LT3)</t>
-  </si>
-  <si>
-    <t>22(LB3)</t>
-  </si>
-  <si>
     <t>IN-PROGRESS</t>
   </si>
   <si>
@@ -128,9 +83,6 @@
   </si>
   <si>
     <t>PLAYERS</t>
-  </si>
-  <si>
-    <t>ICONS</t>
   </si>
   <si>
     <t>START-IN PROGRESS</t>
@@ -253,9 +205,6 @@
     <t xml:space="preserve">GAME OVER </t>
   </si>
   <si>
-    <t>GAME STOP OPTIONS</t>
-  </si>
-  <si>
     <t>FIRST TO REACH</t>
   </si>
   <si>
@@ -265,92 +214,131 @@
     <t>PLAYER</t>
   </si>
   <si>
-    <t>DICE STATES</t>
-  </si>
-  <si>
-    <t>CLICK DICE</t>
-  </si>
-  <si>
-    <t>GENERATE RANDOM NUMBER</t>
-  </si>
-  <si>
-    <t>(BETWEEN 1-6)</t>
-  </si>
-  <si>
-    <t>PRINT RANDOM NUMBER ON DICE</t>
-  </si>
-  <si>
-    <t>CONNECT DICE TO ICON MOVES</t>
-  </si>
-  <si>
-    <t>ICON STATES</t>
-  </si>
-  <si>
-    <t>31 === 54</t>
-  </si>
-  <si>
-    <t>43 === 45</t>
-  </si>
-  <si>
-    <t>1O === 22</t>
-  </si>
-  <si>
-    <t>SNAKES &amp; LADDER EXCEPTIONS</t>
-  </si>
-  <si>
-    <t>53 === 27</t>
-  </si>
-  <si>
-    <t>33 ===21</t>
-  </si>
-  <si>
-    <t>40 === 7</t>
-  </si>
-  <si>
-    <t>STOP</t>
-  </si>
-  <si>
-    <t>CLEAR BOARD</t>
-  </si>
-  <si>
-    <t>ICON RETURN TO START</t>
-  </si>
-  <si>
-    <t>ALERT GAME OVER</t>
-  </si>
-  <si>
-    <t>ON DICE CLICK</t>
-  </si>
-  <si>
-    <t>ICONS MOVE</t>
-  </si>
-  <si>
-    <t>VISUAL ASSETS</t>
-  </si>
-  <si>
-    <t>NUMBERED GRID</t>
-  </si>
-  <si>
-    <t>SNAKES, LADDERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAME DESCRIPTION GAME RULES </t>
-  </si>
-  <si>
-    <t>START AT ZERO</t>
-  </si>
-  <si>
-    <t>ADD MOVES ON DICE == GAME BOARD</t>
-  </si>
-  <si>
-    <t>TILL += 56</t>
+    <t>MAIN OBJECT</t>
+  </si>
+  <si>
+    <t>HEAD - META DETA</t>
+  </si>
+  <si>
+    <t>BODY - FRAMEWORK</t>
+  </si>
+  <si>
+    <t>HEADER</t>
+  </si>
+  <si>
+    <t>IMAGES, H1 TAG</t>
+  </si>
+  <si>
+    <t>MAIN WRAPPER</t>
+  </si>
+  <si>
+    <t>UI-UX</t>
+  </si>
+  <si>
+    <t>INTRODUCTION - P-TAG</t>
+  </si>
+  <si>
+    <t>PLAYER BUTTONS - DICE</t>
+  </si>
+  <si>
+    <t>GAME GRID</t>
+  </si>
+  <si>
+    <t>25 GRID OBJECTS</t>
+  </si>
+  <si>
+    <t>BODY-FRAMEWORK</t>
+  </si>
+  <si>
+    <t>INITIALIZATION</t>
+  </si>
+  <si>
+    <t>SNAKE</t>
+  </si>
+  <si>
+    <t>LADDER</t>
+  </si>
+  <si>
+    <t>DICE 0-6 RANDOM NUMBER</t>
+  </si>
+  <si>
+    <t>PLAYERS ZERO</t>
+  </si>
+  <si>
+    <t>STOP-RESET</t>
+  </si>
+  <si>
+    <t>VISUAL ELEMENTS</t>
+  </si>
+  <si>
+    <t>GAME RULES</t>
+  </si>
+  <si>
+    <t>TOKENS</t>
+  </si>
+  <si>
+    <t>START 1</t>
+  </si>
+  <si>
+    <t>FINISH 24</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>0-24</t>
+  </si>
+  <si>
+    <t>0 START</t>
+  </si>
+  <si>
+    <t>EXCEPTIONS</t>
+  </si>
+  <si>
+    <t>2===10</t>
+  </si>
+  <si>
+    <t>8===22</t>
+  </si>
+  <si>
+    <t>14===7</t>
+  </si>
+  <si>
+    <t>24===11</t>
+  </si>
+  <si>
+    <t>BODY OBJECT</t>
+  </si>
+  <si>
+    <t>BACK-END SCRIPTS - JS AND JQUERY GAME LOGIC</t>
+  </si>
+  <si>
+    <t>J-QUERY</t>
+  </si>
+  <si>
+    <t>24 FINISH</t>
+  </si>
+  <si>
+    <t>DELCARE WINNER</t>
+  </si>
+  <si>
+    <t>MOVES === DICE ROLL</t>
+  </si>
+  <si>
+    <t>DOM STRUCTURE  - PROTOTYPE TREE</t>
+  </si>
+  <si>
+    <t>snake</t>
+  </si>
+  <si>
+    <t>(grid objects)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -389,19 +377,22 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -412,12 +403,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,8 +424,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -776,8 +767,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="153">
+  <cellStyleXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -931,13 +1002,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -946,51 +1031,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1009,8 +1080,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="153">
+  <cellStyles count="169">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1087,6 +1204,14 @@
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1163,6 +1288,14 @@
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1492,525 +1625,400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M35"/>
+  <dimension ref="B1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="11.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="5" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="16" thickBot="1"/>
-    <row r="3" spans="2:13" ht="16" thickBot="1">
-      <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="2:13" ht="16" thickBot="1">
-      <c r="B4" s="6"/>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="2:13" ht="16" thickBot="1">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="2:13" ht="16" thickBot="1">
-      <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="6"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
-        <v>55</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5">
-        <v>52</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="24">
-        <v>48</v>
-      </c>
-      <c r="E8" s="15">
-        <v>49</v>
-      </c>
-      <c r="F8" s="15">
-        <v>50</v>
-      </c>
-      <c r="G8" s="17">
-        <v>51</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="24">
-        <v>47</v>
-      </c>
-      <c r="E9" s="15">
-        <v>46</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="17">
-        <v>44</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="15">
-        <v>41</v>
-      </c>
-      <c r="F10" s="15">
-        <v>42</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="24">
-        <v>39</v>
-      </c>
-      <c r="E11" s="15">
-        <v>38</v>
-      </c>
-      <c r="F11" s="15">
-        <v>37</v>
-      </c>
-      <c r="G11" s="17">
-        <v>36</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="24">
-        <v>32</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="15">
-        <v>34</v>
-      </c>
-      <c r="G12" s="17">
-        <v>35</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="15">
-        <v>30</v>
-      </c>
-      <c r="F13" s="15">
-        <v>29</v>
-      </c>
-      <c r="G13" s="17">
-        <v>28</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="24">
-        <v>24</v>
-      </c>
-      <c r="E14" s="15">
-        <v>25</v>
-      </c>
-      <c r="F14" s="15">
-        <v>26</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="24">
-        <v>23</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="17">
-        <v>20</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="24">
-        <v>16</v>
-      </c>
-      <c r="E16" s="15">
-        <v>17</v>
-      </c>
-      <c r="F16" s="15">
-        <v>18</v>
-      </c>
-      <c r="G16" s="17">
-        <v>19</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="24">
-        <v>15</v>
-      </c>
-      <c r="E17" s="15">
-        <v>14</v>
-      </c>
-      <c r="F17" s="15">
-        <v>13</v>
-      </c>
-      <c r="G17" s="17">
-        <v>12</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="24">
-        <v>8</v>
-      </c>
-      <c r="E18" s="15">
-        <v>9</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="17">
-        <v>11</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="15">
-        <v>6</v>
-      </c>
-      <c r="F19" s="15">
-        <v>5</v>
-      </c>
-      <c r="G19" s="17">
-        <v>4</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="2:9" ht="16" thickBot="1">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="41">
-        <v>0</v>
-      </c>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
-      <c r="F20" s="21">
-        <v>2</v>
-      </c>
-      <c r="G20" s="22">
-        <v>3</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="2:9" ht="16" thickBot="1">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="2:9" ht="16" thickBot="1">
-      <c r="B22" s="6"/>
-      <c r="C22" s="28" t="s">
+    <row r="1" spans="2:11">
+      <c r="B1" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="30" t="s">
+      <c r="E1" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="52"/>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="F2" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="86"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="C4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="49"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="D5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="D6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="E7" s="53"/>
+      <c r="F7" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="54"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="D8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="F8" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="81"/>
+      <c r="K8" s="54"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="D9" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="F9" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="84"/>
+      <c r="K9" s="54"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="D10" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+    </row>
+    <row r="11" spans="2:11" ht="16" thickBot="1">
+      <c r="E11" s="53"/>
+      <c r="F11" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="D12" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="53"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="59"/>
+      <c r="J12" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="54"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="D13" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="54"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="C14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="53"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="54"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="54"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="E16" s="53"/>
+      <c r="F16" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="54"/>
+    </row>
+    <row r="17" spans="5:11">
+      <c r="E17" s="53"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="54"/>
+    </row>
+    <row r="18" spans="5:11">
+      <c r="E18" s="53"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="35"/>
+      <c r="K18" s="54"/>
+    </row>
+    <row r="19" spans="5:11">
+      <c r="E19" s="53"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="54"/>
+    </row>
+    <row r="20" spans="5:11" ht="16" thickBot="1">
+      <c r="E20" s="53"/>
+      <c r="F20" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="63"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="54"/>
+    </row>
+    <row r="21" spans="5:11" ht="16" thickBot="1">
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+    </row>
+    <row r="22" spans="5:11">
+      <c r="E22" s="53"/>
+      <c r="F22" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="54"/>
+    </row>
+    <row r="23" spans="5:11">
+      <c r="E23" s="53"/>
+      <c r="F23" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="72"/>
+      <c r="K23" s="54"/>
+    </row>
+    <row r="24" spans="5:11">
+      <c r="E24" s="53"/>
+      <c r="F24" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="6"/>
-      <c r="C23" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23" s="35"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="2:9" ht="16" thickBot="1">
-      <c r="B24" s="6"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="2:9" ht="16" thickBot="1">
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="15" t="s">
+      <c r="J24" s="72"/>
+      <c r="K24" s="54"/>
+    </row>
+    <row r="25" spans="5:11">
+      <c r="E25" s="53"/>
+      <c r="F25" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="72"/>
+      <c r="K25" s="54"/>
+    </row>
+    <row r="26" spans="5:11">
+      <c r="E26" s="53"/>
+      <c r="F26" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="62"/>
-      <c r="C29" s="15" t="s">
+      <c r="J26" s="72"/>
+      <c r="K26" s="54"/>
+    </row>
+    <row r="27" spans="5:11">
+      <c r="E27" s="53"/>
+      <c r="F27" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="72"/>
+      <c r="K27" s="54"/>
+    </row>
+    <row r="28" spans="5:11">
+      <c r="E28" s="53"/>
+      <c r="F28" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="62"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H30" s="15"/>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="62"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="62"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="62"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15" t="s">
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="62"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15" t="s">
+      <c r="J28" s="72"/>
+      <c r="K28" s="54"/>
+    </row>
+    <row r="29" spans="5:11" ht="16" thickBot="1">
+      <c r="E29" s="53"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="63"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="54"/>
+    </row>
+    <row r="30" spans="5:11">
+      <c r="E30" s="53"/>
+      <c r="K30" s="54"/>
+    </row>
+    <row r="31" spans="5:11">
+      <c r="E31" s="55"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B28:B35"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2025,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2044,564 +2052,564 @@
     <row r="2" spans="2:13" ht="16" thickBot="1"/>
     <row r="3" spans="2:13" ht="16" thickBot="1">
       <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="2:13" ht="16" thickBot="1">
-      <c r="B4" s="6"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="2:13" ht="16" thickBot="1">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="2:13" ht="16" thickBot="1">
-      <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="8"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="6"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="27">
+        <v>54</v>
+      </c>
+      <c r="F7" s="27">
+        <v>53</v>
+      </c>
+      <c r="G7" s="28">
+        <v>52</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="11">
+        <v>49</v>
+      </c>
+      <c r="F8" s="11">
+        <v>50</v>
+      </c>
+      <c r="G8" s="29">
+        <v>51</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="12">
+        <v>46</v>
+      </c>
+      <c r="F9" s="12">
+        <v>45</v>
+      </c>
+      <c r="G9" s="24">
+        <v>44</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="30">
+        <v>40</v>
+      </c>
+      <c r="E10" s="17">
+        <v>41</v>
+      </c>
+      <c r="F10" s="17">
+        <v>42</v>
+      </c>
+      <c r="G10" s="18">
+        <v>43</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4">
+        <v>4</v>
+      </c>
+      <c r="D11" s="30">
         <v>39</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E11" s="17">
+        <v>38</v>
+      </c>
+      <c r="F11" s="17">
+        <v>37</v>
+      </c>
+      <c r="G11" s="18">
+        <v>36</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="30">
+        <v>32</v>
+      </c>
+      <c r="E12" s="17">
+        <v>33</v>
+      </c>
+      <c r="F12" s="17">
+        <v>34</v>
+      </c>
+      <c r="G12" s="18">
+        <v>35</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4">
+        <v>6</v>
+      </c>
+      <c r="D13" s="30">
+        <v>31</v>
+      </c>
+      <c r="E13" s="17">
+        <v>30</v>
+      </c>
+      <c r="F13" s="17">
+        <v>29</v>
+      </c>
+      <c r="G13" s="18">
+        <v>28</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
+        <v>7</v>
+      </c>
+      <c r="D14" s="30">
+        <v>24</v>
+      </c>
+      <c r="E14" s="17">
+        <v>25</v>
+      </c>
+      <c r="F14" s="17">
+        <v>26</v>
+      </c>
+      <c r="G14" s="18">
+        <v>27</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4">
+        <v>8</v>
+      </c>
+      <c r="D15" s="30">
+        <v>23</v>
+      </c>
+      <c r="E15" s="17">
+        <v>22</v>
+      </c>
+      <c r="F15" s="17">
+        <v>21</v>
+      </c>
+      <c r="G15" s="18">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4">
+        <v>9</v>
+      </c>
+      <c r="D16" s="30">
+        <v>16</v>
+      </c>
+      <c r="E16" s="17">
+        <v>17</v>
+      </c>
+      <c r="F16" s="17">
+        <v>18</v>
+      </c>
+      <c r="G16" s="18">
+        <v>19</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4">
+        <v>10</v>
+      </c>
+      <c r="D17" s="30">
+        <v>15</v>
+      </c>
+      <c r="E17" s="17">
+        <v>14</v>
+      </c>
+      <c r="F17" s="17">
+        <v>13</v>
+      </c>
+      <c r="G17" s="18">
+        <v>12</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" s="30">
+        <v>8</v>
+      </c>
+      <c r="E18" s="17">
+        <v>9</v>
+      </c>
+      <c r="F18" s="17">
+        <v>10</v>
+      </c>
+      <c r="G18" s="18">
+        <v>11</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4">
+        <v>12</v>
+      </c>
+      <c r="D19" s="36">
+        <v>7</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="17">
+        <v>5</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:9" ht="16" thickBot="1">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4">
+        <v>13</v>
+      </c>
+      <c r="D20" s="31">
+        <v>0</v>
+      </c>
+      <c r="E20" s="32">
+        <v>1</v>
+      </c>
+      <c r="F20" s="32">
+        <v>2</v>
+      </c>
+      <c r="G20" s="33">
+        <v>3</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="2:9" ht="16" thickBot="1">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:9" ht="16" thickBot="1">
+      <c r="B22" s="4"/>
+      <c r="C22" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="43">
+      <c r="E22" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="4"/>
+      <c r="C23" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="2:9" ht="16" thickBot="1">
+      <c r="B24" s="4"/>
+      <c r="C24" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="2:9" ht="16" thickBot="1">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="46"/>
+      <c r="C29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="46"/>
+      <c r="C30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="46"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="46"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="46"/>
+      <c r="C33" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="46"/>
+      <c r="C34" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="44">
-        <v>52</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="13">
-        <v>49</v>
-      </c>
-      <c r="F8" s="13">
-        <v>50</v>
-      </c>
-      <c r="G8" s="45">
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="47"/>
+      <c r="C35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6">
-        <v>2</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="14">
-        <v>46</v>
-      </c>
-      <c r="F9" s="14">
-        <v>45</v>
-      </c>
-      <c r="G9" s="37">
-        <v>44</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6">
-        <v>3</v>
-      </c>
-      <c r="D10" s="46">
-        <v>40</v>
-      </c>
-      <c r="E10" s="23">
-        <v>41</v>
-      </c>
-      <c r="F10" s="23">
-        <v>42</v>
-      </c>
-      <c r="G10" s="25">
-        <v>43</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6">
-        <v>4</v>
-      </c>
-      <c r="D11" s="46">
-        <v>39</v>
-      </c>
-      <c r="E11" s="23">
-        <v>38</v>
-      </c>
-      <c r="F11" s="23">
-        <v>37</v>
-      </c>
-      <c r="G11" s="25">
-        <v>36</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6">
-        <v>5</v>
-      </c>
-      <c r="D12" s="46">
-        <v>32</v>
-      </c>
-      <c r="E12" s="23">
-        <v>33</v>
-      </c>
-      <c r="F12" s="23">
-        <v>34</v>
-      </c>
-      <c r="G12" s="25">
-        <v>35</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6">
-        <v>6</v>
-      </c>
-      <c r="D13" s="46">
-        <v>31</v>
-      </c>
-      <c r="E13" s="23">
-        <v>30</v>
-      </c>
-      <c r="F13" s="23">
-        <v>29</v>
-      </c>
-      <c r="G13" s="25">
-        <v>28</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6">
-        <v>7</v>
-      </c>
-      <c r="D14" s="46">
-        <v>24</v>
-      </c>
-      <c r="E14" s="23">
-        <v>25</v>
-      </c>
-      <c r="F14" s="23">
-        <v>26</v>
-      </c>
-      <c r="G14" s="25">
-        <v>27</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6">
-        <v>8</v>
-      </c>
-      <c r="D15" s="46">
-        <v>23</v>
-      </c>
-      <c r="E15" s="23">
-        <v>22</v>
-      </c>
-      <c r="F15" s="23">
-        <v>21</v>
-      </c>
-      <c r="G15" s="25">
-        <v>20</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6">
-        <v>9</v>
-      </c>
-      <c r="D16" s="46">
-        <v>16</v>
-      </c>
-      <c r="E16" s="23">
-        <v>17</v>
-      </c>
-      <c r="F16" s="23">
-        <v>18</v>
-      </c>
-      <c r="G16" s="25">
-        <v>19</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6">
-        <v>10</v>
-      </c>
-      <c r="D17" s="46">
-        <v>15</v>
-      </c>
-      <c r="E17" s="23">
-        <v>14</v>
-      </c>
-      <c r="F17" s="23">
-        <v>13</v>
-      </c>
-      <c r="G17" s="25">
-        <v>12</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6">
-        <v>11</v>
-      </c>
-      <c r="D18" s="46">
-        <v>8</v>
-      </c>
-      <c r="E18" s="23">
-        <v>9</v>
-      </c>
-      <c r="F18" s="23">
-        <v>10</v>
-      </c>
-      <c r="G18" s="25">
-        <v>11</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6">
-        <v>12</v>
-      </c>
-      <c r="D19" s="52">
-        <v>7</v>
-      </c>
-      <c r="E19" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="23">
-        <v>5</v>
-      </c>
-      <c r="G19" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="2:9" ht="16" thickBot="1">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6">
-        <v>13</v>
-      </c>
-      <c r="D20" s="47">
-        <v>0</v>
-      </c>
-      <c r="E20" s="48">
-        <v>1</v>
-      </c>
-      <c r="F20" s="48">
-        <v>2</v>
-      </c>
-      <c r="G20" s="49">
-        <v>3</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="2:9" ht="16" thickBot="1">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="2:9" ht="16" thickBot="1">
-      <c r="B22" s="6"/>
-      <c r="C22" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="6"/>
-      <c r="C23" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="2:9" ht="16" thickBot="1">
-      <c r="B24" s="6"/>
-      <c r="C24" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="2:9" ht="16" thickBot="1">
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="62"/>
-      <c r="C29" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="62"/>
-      <c r="C30" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="62"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="62"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="62"/>
-      <c r="C33" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" s="15"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="62"/>
-      <c r="C34" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="63"/>
-      <c r="C35" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
